--- a/biology/Botanique/Thalictrum_aquilegiifolium/Thalictrum_aquilegiifolium.xlsx
+++ b/biology/Botanique/Thalictrum_aquilegiifolium/Thalictrum_aquilegiifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pigamon à feuilles d'ancolie
 Le Pigamon à feuilles d'ancolie (Thalictrum aquilegiifolium), également appelée Colombine panachée ou Colombine plumeuse, est une espèce de plante herbacée vivace du genre Thalictrum et de la famille des Renonculacées.
@@ -512,13 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Thalictrum aquilegiifolium a été décrite par le naturaliste suédois Carl von Linné en 1753.
-Synonymie
-Ruprechtia aquilegiifolia (L.) Opiz[1] ;
-Tripterium aquilegiifolium (L.) Bercht. &amp; J.Presl[2] ;
-Thalictrum alatum Dulac[3], nom. illeg.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Thalictrum aquilegiifolium a été décrite par le naturaliste suédois Carl von Linné en 1753.
+</t>
         </is>
       </c>
     </row>
@@ -543,15 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces
-Thalictrum aquilegiifolium var. aquilegiifolium
-Thalictrum aquilegiifolium var. intermedium Nakai, T. 1937 [4]
-Thalictrum aquilegiifolium var. sibiricum Regel, E.A. von &amp; Tiling, H.S.T. 1859[5]</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ruprechtia aquilegiifolia (L.) Opiz ;
+Tripterium aquilegiifolium (L.) Bercht. &amp; J.Presl ;
+Thalictrum alatum Dulac, nom. illeg.</t>
         </is>
       </c>
     </row>
@@ -576,13 +592,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante pouvant atteindre 1 mètre. Fleurs violacées, roses ou blanches possédant de très nombreuses étamines mais caractérisées par l’absence de pétales.
-</t>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
+Thalictrum aquilegiifolium var. aquilegiifolium
+Thalictrum aquilegiifolium var. intermedium Nakai, T. 1937 
+Thalictrum aquilegiifolium var. sibiricum Regel, E.A. von &amp; Tiling, H.S.T. 1859</t>
         </is>
       </c>
     </row>
@@ -607,13 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve en Europe, par exemple en Bosnie-Herzégovine. En France, on la trouve dans les Alpes et les Pyrénées.
-Habitat : Bois et ravins de montagne.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante pouvant atteindre 1 mètre. Fleurs violacées, roses ou blanches possédant de très nombreuses étamines mais caractérisées par l’absence de pétales.
 </t>
         </is>
       </c>
@@ -639,10 +660,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en Europe, par exemple en Bosnie-Herzégovine. En France, on la trouve dans les Alpes et les Pyrénées.
+Habitat : Bois et ravins de montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thalictrum_aquilegiifolium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thalictrum_aquilegiifolium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, Thalictrum aquilegiifolium est protégé en région Alsace (Article 1).
 </t>
